--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Npy</t>
+  </si>
+  <si>
+    <t>Npy1r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Npy</t>
-  </si>
-  <si>
-    <t>Npy1r</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.672624</v>
+        <v>0.8592460000000001</v>
       </c>
       <c r="H2">
-        <v>2.017872</v>
+        <v>2.577738</v>
       </c>
       <c r="I2">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.150707666666667</v>
+        <v>0.2669126666666666</v>
       </c>
       <c r="N2">
-        <v>3.452123</v>
+        <v>0.8007379999999999</v>
       </c>
       <c r="O2">
-        <v>0.1434406019171491</v>
+        <v>0.03034101117354083</v>
       </c>
       <c r="P2">
-        <v>0.1434406019171491</v>
+        <v>0.03034101117354083</v>
       </c>
       <c r="Q2">
-        <v>0.773993593584</v>
+        <v>0.2293436411826666</v>
       </c>
       <c r="R2">
-        <v>6.965942342256001</v>
+        <v>2.064092770644</v>
       </c>
       <c r="S2">
-        <v>0.07500667914125236</v>
+        <v>0.03034101117354083</v>
       </c>
       <c r="T2">
-        <v>0.07500667914125236</v>
+        <v>0.03034101117354083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.672624</v>
+        <v>0.8592460000000001</v>
       </c>
       <c r="H3">
-        <v>2.017872</v>
+        <v>2.577738</v>
       </c>
       <c r="I3">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.0993</v>
       </c>
       <c r="O3">
-        <v>0.00412605569684884</v>
+        <v>0.003762607006951842</v>
       </c>
       <c r="P3">
-        <v>0.00412605569684884</v>
+        <v>0.003762607006951843</v>
       </c>
       <c r="Q3">
-        <v>0.0222638544</v>
+        <v>0.0284410426</v>
       </c>
       <c r="R3">
-        <v>0.2003746896</v>
+        <v>0.2559693834</v>
       </c>
       <c r="S3">
-        <v>0.002157560214026661</v>
+        <v>0.003762607006951842</v>
       </c>
       <c r="T3">
-        <v>0.002157560214026661</v>
+        <v>0.003762607006951843</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.672624</v>
+        <v>0.8592460000000001</v>
       </c>
       <c r="H4">
-        <v>2.017872</v>
+        <v>2.577738</v>
       </c>
       <c r="I4">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,214 +679,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.838381666666667</v>
+        <v>8.471597333333333</v>
       </c>
       <c r="N4">
-        <v>20.515145</v>
+        <v>25.414792</v>
       </c>
       <c r="O4">
-        <v>0.852433342386002</v>
+        <v>0.9629997427937929</v>
       </c>
       <c r="P4">
-        <v>0.852433342386002</v>
+        <v>0.962999742793793</v>
       </c>
       <c r="Q4">
-        <v>4.59965963016</v>
+        <v>7.279186122277334</v>
       </c>
       <c r="R4">
-        <v>41.39693667144</v>
+        <v>65.51267510049601</v>
       </c>
       <c r="S4">
-        <v>0.4457468342093452</v>
+        <v>0.9629997427937929</v>
       </c>
       <c r="T4">
-        <v>0.4457468342093452</v>
+        <v>0.962999742793793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6136826666666667</v>
+        <v>0.8592460000000001</v>
       </c>
       <c r="H5">
-        <v>1.841048</v>
+        <v>2.577738</v>
       </c>
       <c r="I5">
-        <v>0.4770889264353757</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4770889264353757</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.150707666666667</v>
+        <v>0.025482</v>
       </c>
       <c r="N5">
-        <v>3.452123</v>
+        <v>0.076446</v>
       </c>
       <c r="O5">
-        <v>0.1434406019171491</v>
+        <v>0.002896639025714406</v>
       </c>
       <c r="P5">
-        <v>0.1434406019171491</v>
+        <v>0.002896639025714406</v>
       </c>
       <c r="Q5">
-        <v>0.7061693494337778</v>
+        <v>0.021895306572</v>
       </c>
       <c r="R5">
-        <v>6.355524144904002</v>
+        <v>0.197057759148</v>
       </c>
       <c r="S5">
-        <v>0.06843392277589677</v>
+        <v>0.002896639025714406</v>
       </c>
       <c r="T5">
-        <v>0.06843392277589677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.841048</v>
-      </c>
-      <c r="I6">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J6">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.0331</v>
-      </c>
-      <c r="N6">
-        <v>0.0993</v>
-      </c>
-      <c r="O6">
-        <v>0.00412605569684884</v>
-      </c>
-      <c r="P6">
-        <v>0.00412605569684884</v>
-      </c>
-      <c r="Q6">
-        <v>0.02031289626666666</v>
-      </c>
-      <c r="R6">
-        <v>0.1828160664</v>
-      </c>
-      <c r="S6">
-        <v>0.001968495482822179</v>
-      </c>
-      <c r="T6">
-        <v>0.001968495482822179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.841048</v>
-      </c>
-      <c r="I7">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J7">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.838381666666667</v>
-      </c>
-      <c r="N7">
-        <v>20.515145</v>
-      </c>
-      <c r="O7">
-        <v>0.852433342386002</v>
-      </c>
-      <c r="P7">
-        <v>0.852433342386002</v>
-      </c>
-      <c r="Q7">
-        <v>4.196596296884445</v>
-      </c>
-      <c r="R7">
-        <v>37.76936667196001</v>
-      </c>
-      <c r="S7">
-        <v>0.4066865081766567</v>
-      </c>
-      <c r="T7">
-        <v>0.4066865081766567</v>
+        <v>0.002896639025714406</v>
       </c>
     </row>
   </sheetData>
